--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -12,35 +12,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instruct_text</t>
   </si>
   <si>
-    <t xml:space="preserve">In this experiment, you will read 16 stories. For each story you will assume a particular role.
+    <t>instruct_text2</t>
+  </si>
+  <si>
+    <t>Welcome to the Job Simulator Task!</t>
+  </si>
+  <si>
+    <t>(press the space bar to continue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this task, you will read 16 stories. During each one you will simulate having one job.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This role will be assigned to you before each story. </t>
+    <t xml:space="preserve">This job will be assigned to you before each story. </t>
   </si>
   <si>
-    <t xml:space="preserve">While reading each story, you should imagine yourself as having that role. </t>
+    <t xml:space="preserve">While reading each story, you should imagine yourself as having that job. </t>
   </si>
   <si>
-    <t xml:space="preserve">In addition, your task will be to keep track of answers to role-related questions.
+    <t>There are 8 possible jobs you could be asked to simulate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition, your task will be to answer job-related questions.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">There are four question for each role you will be asked to answer. You will have to try to memorize these questions and then remember your answers to the questions. </t>
+    <t>There are four question per job.</t>
   </si>
   <si>
-    <t xml:space="preserve">There will be a short quiz on these questions before the actual task begins that must be passed in order to continue. However, before each story, there will be a reminder of what these questions are.  </t>
+    <t>You will have to try to memorize these questions and then remember your answers to the questions.</t>
   </si>
   <si>
-    <t>There will be a recall test on your answers to these questions at the end of the experiment.</t>
+    <t xml:space="preserve">You will asked about the answers to these questions at end of the experiment. </t>
   </si>
   <si>
-    <t>Press the space bar to begin learning the questions for each role.</t>
+    <t>In order to help you memorize the questions, there will be a short quiz on them before the actual task begins.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition, before each story, there will be a reminder of what these questions are.  </t>
+  </si>
+  <si>
+    <t>Press the space bar to begin learning the jobs and the questions for each one.</t>
   </si>
 </sst>
 </file>
@@ -118,6 +136,21 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
         <color indexed="11"/>
       </bottom>
       <diagonal/>
@@ -185,21 +218,6 @@
     <border>
       <left style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -218,7 +236,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -231,25 +249,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1338,7 +1365,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1352,27 +1379,31 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="104.25" customHeight="1">
+    <row r="2" ht="60.8" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" t="s" s="5">
+        <v>3</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="44.05" customHeight="1">
+    <row r="3" ht="104.25" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1381,188 +1412,232 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="68.05" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="116.05" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="116.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="4" ht="38.7" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="155.55" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" ht="68.05" customHeight="1">
+      <c r="A5" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="80.05" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" ht="68.05" customHeight="1">
+      <c r="A6" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="68.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" ht="116.05" customHeight="1">
+      <c r="A7" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" ht="116.05" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="116.05" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" ht="116.05" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" ht="155.55" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" ht="155.55" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" ht="68.05" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>instruct_text</t>
   </si>
@@ -39,26 +39,7 @@
     <t>There are 8 possible jobs you could be asked to simulate.</t>
   </si>
   <si>
-    <t xml:space="preserve">In addition, your task will be to answer job-related questions.
-</t>
-  </si>
-  <si>
-    <t>There are four question per job.</t>
-  </si>
-  <si>
-    <t>You will have to try to memorize these questions and then remember your answers to the questions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You will asked about the answers to these questions at end of the experiment. </t>
-  </si>
-  <si>
-    <t>In order to help you memorize the questions, there will be a short quiz on them before the actual task begins.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In addition, before each story, there will be a reminder of what these questions are.  </t>
-  </si>
-  <si>
-    <t>Press the space bar to begin learning the jobs and the questions for each one.</t>
+    <t>These jobs are as follows:</t>
   </si>
 </sst>
 </file>
@@ -117,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -230,13 +211,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -274,6 +292,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -301,6 +328,7 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1446,7 +1474,7 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" ht="116.05" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="A7" t="s" s="13">
         <v>8</v>
       </c>
       <c r="B7" s="11"/>
@@ -1457,9 +1485,7 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" ht="116.05" customHeight="1">
-      <c r="A8" t="s" s="10">
-        <v>9</v>
-      </c>
+      <c r="A8" s="14"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -1468,9 +1494,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" ht="116.05" customHeight="1">
-      <c r="A9" t="s" s="10">
-        <v>10</v>
-      </c>
+      <c r="A9" s="14"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1479,9 +1503,7 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" ht="116.05" customHeight="1">
-      <c r="A10" t="s" s="10">
-        <v>11</v>
-      </c>
+      <c r="A10" s="14"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1490,9 +1512,7 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" ht="155.55" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>12</v>
-      </c>
+      <c r="A11" s="14"/>
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1501,9 +1521,7 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" ht="155.55" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>13</v>
-      </c>
+      <c r="A12" s="14"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1512,9 +1530,7 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" ht="68.05" customHeight="1">
-      <c r="A13" t="s" s="10">
-        <v>14</v>
-      </c>
+      <c r="A13" s="15"/>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -1523,7 +1539,7 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -1532,7 +1548,7 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1541,7 +1557,7 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -1550,7 +1566,7 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1559,7 +1575,7 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1568,7 +1584,7 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1577,7 +1593,7 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1586,7 +1602,7 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1595,7 +1611,7 @@
       <c r="G21" s="12"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1604,7 +1620,7 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1613,7 +1629,7 @@
       <c r="G23" s="12"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="13"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1622,7 +1638,7 @@
       <c r="G24" s="12"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="13"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1631,7 +1647,7 @@
       <c r="G25" s="12"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="13"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>instruct_text</t>
   </si>
@@ -20,26 +20,23 @@
     <t>instruct_text2</t>
   </si>
   <si>
-    <t>Welcome to the Job Simulator Task!</t>
+    <t>Welcome to the Career Perspectives Task!</t>
   </si>
   <si>
     <t>(press the space bar to continue)</t>
   </si>
   <si>
-    <t xml:space="preserve">In this task, you will read 16 stories. During each one you will simulate having one job.
+    <t>In this task, you will read 16 stories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before each story you will be assigned a perspective to assume while reading that story.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This job will be assigned to you before each story. </t>
+    <t>You should read the story according to the designated perspective.</t>
   </si>
   <si>
-    <t xml:space="preserve">While reading each story, you should imagine yourself as having that job. </t>
-  </si>
-  <si>
-    <t>There are 8 possible jobs you could be asked to simulate.</t>
-  </si>
-  <si>
-    <t>These jobs are as follows:</t>
+    <t>The perspectives are as follows:</t>
   </si>
 </sst>
 </file>
@@ -98,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -130,6 +127,51 @@
       </right>
       <top style="thin">
         <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -254,7 +296,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -291,19 +333,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1393,7 +1444,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1440,7 +1491,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="38.7" customHeight="1">
+    <row r="4" ht="104.25" customHeight="1">
       <c r="A4" t="s" s="10">
         <v>5</v>
       </c>
@@ -1452,208 +1503,197 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" ht="68.05" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="A5" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="68.05" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" ht="116.05" customHeight="1">
+      <c r="A6" t="s" s="16">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" ht="116.05" customHeight="1">
-      <c r="A7" t="s" s="13">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" ht="116.05" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" ht="116.05" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="116.05" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" ht="155.55" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" ht="155.55" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" ht="155.55" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="68.05" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" ht="68.05" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -20,7 +20,7 @@
     <t>instruct_text2</t>
   </si>
   <si>
-    <t>Welcome to the Career Perspectives Task!</t>
+    <t>Welcome to the Job Simulator Task!</t>
   </si>
   <si>
     <t>(press the space bar to continue)</t>
@@ -29,7 +29,7 @@
     <t>In this task, you will read 16 stories.</t>
   </si>
   <si>
-    <t xml:space="preserve">Before each story you will be assigned a perspective to assume while reading that story.
+    <t xml:space="preserve">Before each story you will be assigned a perspective of a particular career to assume while reading that story.
 </t>
   </si>
   <si>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>instruct_text</t>
   </si>
@@ -26,17 +26,22 @@
     <t>(press the space bar to continue)</t>
   </si>
   <si>
-    <t>In this task, you will read 16 stories.</t>
+    <t xml:space="preserve">In this task, you first be introduced to the perspectives of 8 different careers. </t>
   </si>
   <si>
-    <t xml:space="preserve">Before each story you will be assigned a perspective of a particular career to assume while reading that story.
-</t>
+    <t xml:space="preserve">Then, you will learn 4 questions associated with each perspective. </t>
   </si>
   <si>
-    <t>You should read the story according to the designated perspective.</t>
+    <t xml:space="preserve">Subsequently, you will thoroughly read 16 stories while assuming one of those 8 perspectives. </t>
   </si>
   <si>
-    <t>The perspectives are as follows:</t>
+    <t xml:space="preserve">While reading, try to remember the questions of the perspective you have assumed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After, you will be asked to answer these questions about the stories you have read. </t>
+  </si>
+  <si>
+    <t>The 8 perspectives are as follows:</t>
   </si>
 </sst>
 </file>
@@ -225,7 +230,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -233,9 +238,7 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -251,19 +254,6 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -290,13 +280,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -336,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -345,16 +350,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1444,7 +1446,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1492,49 +1494,53 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" ht="104.25" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="68.05" customHeight="1">
-      <c r="A5" t="s" s="13">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="104.25" customHeight="1">
+      <c r="A5" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" ht="116.05" customHeight="1">
-      <c r="A6" t="s" s="16">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="104.25" customHeight="1">
+      <c r="A6" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" ht="116.05" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="104.25" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" ht="116.05" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" t="s" s="13">
+        <v>9</v>
+      </c>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1543,7 +1549,7 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" ht="116.05" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1551,8 +1557,8 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" ht="155.55" customHeight="1">
-      <c r="A10" s="17"/>
+    <row r="10" ht="116.05" customHeight="1">
+      <c r="A10" s="16"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1560,8 +1566,8 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" ht="155.55" customHeight="1">
-      <c r="A11" s="17"/>
+    <row r="11" ht="116.05" customHeight="1">
+      <c r="A11" s="16"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1569,8 +1575,8 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" ht="68.05" customHeight="1">
-      <c r="A12" s="18"/>
+    <row r="12" ht="155.55" customHeight="1">
+      <c r="A12" s="16"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1578,8 +1584,8 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="19"/>
+    <row r="13" ht="155.55" customHeight="1">
+      <c r="A13" s="16"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1587,8 +1593,8 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="19"/>
+    <row r="14" ht="68.05" customHeight="1">
+      <c r="A14" s="17"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1597,7 +1603,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1606,7 +1612,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1615,7 +1621,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1624,7 +1630,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1633,7 +1639,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1642,7 +1648,7 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1651,7 +1657,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1660,7 +1666,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1669,7 +1675,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1678,7 +1684,7 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1687,13 +1693,31 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -12,36 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instruct_text</t>
   </si>
   <si>
-    <t>instruct_text2</t>
+    <t>this_pic</t>
   </si>
   <si>
     <t>Welcome to the Job Simulator Task!</t>
   </si>
   <si>
-    <t>(press the space bar to continue)</t>
+    <t>instructions_photos/pixel.png</t>
   </si>
   <si>
-    <t xml:space="preserve">In this task, you first be introduced to the perspectives of 8 different careers. </t>
+    <t xml:space="preserve">In this task, you’ll first be introduced to the perspectives of 8 different jobs. </t>
   </si>
   <si>
-    <t xml:space="preserve">Then, you will learn 4 questions associated with each perspective. </t>
+    <t>instructions_photos/i1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Subsequently, you will thoroughly read 16 stories while assuming one of those 8 perspectives. </t>
+    <t xml:space="preserve">You’ll then learn 4 questions associated with each perspective. </t>
   </si>
   <si>
-    <t xml:space="preserve">While reading, try to remember the questions of the perspective you have assumed. </t>
+    <t>instructions_photos/i2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">After, you will be asked to answer these questions about the stories you have read. </t>
+    <t>Subsequently, you will be asked to apply those perspectives and questions to 8 stories.</t>
   </si>
   <si>
-    <t>The 8 perspectives are as follows:</t>
+    <t>instructions_photos/i3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each story you read, you will be asked to assume one of the perspectives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While reading, try to remember the perspective and the questions of that perspective. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After you’re finished reading all the stories, you will be asked to recall the stories and answer questions about them. </t>
+  </si>
+  <si>
+    <t>instructions_photos/i4.png</t>
+  </si>
+  <si>
+    <t>Let’s begin! The 8 perspectives are as follows:</t>
   </si>
 </sst>
 </file>
@@ -326,7 +341,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -335,7 +350,7 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1446,7 +1461,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1486,7 +1501,9 @@
       <c r="A3" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" t="s" s="8">
+        <v>5</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1495,9 +1512,11 @@
     </row>
     <row r="4" ht="104.25" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" t="s" s="8">
+        <v>7</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1506,9 +1525,11 @@
     </row>
     <row r="5" ht="104.25" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" t="s" s="8">
+        <v>9</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1517,9 +1538,11 @@
     </row>
     <row r="6" ht="104.25" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" t="s" s="8">
+        <v>9</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1527,29 +1550,35 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" ht="104.25" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>8</v>
+      <c r="A7" t="s" s="7">
+        <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="116.05" customHeight="1">
-      <c r="A8" t="s" s="13">
+      <c r="B7" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="104.25" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="116.05" customHeight="1">
-      <c r="A9" s="16"/>
+      <c r="A9" t="s" s="13">
+        <v>14</v>
+      </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1575,7 +1604,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" ht="155.55" customHeight="1">
+    <row r="12" ht="116.05" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -1593,8 +1622,8 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" ht="68.05" customHeight="1">
-      <c r="A14" s="17"/>
+    <row r="14" ht="155.55" customHeight="1">
+      <c r="A14" s="16"/>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1602,8 +1631,8 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="18"/>
+    <row r="15" ht="68.05" customHeight="1">
+      <c r="A15" s="17"/>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1719,6 +1748,15 @@
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
     </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>instruct_text</t>
   </si>
@@ -26,28 +26,37 @@
     <t>instructions_photos/pixel.png</t>
   </si>
   <si>
-    <t xml:space="preserve">In this task, you’ll first be introduced to the perspectives of 8 different jobs. </t>
+    <t xml:space="preserve">In this task, you'll be assuming various perspectives of jobs while reading stories. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, you’ll be introduced to perspectives of 8 different jobs. </t>
   </si>
   <si>
     <t>instructions_photos/i1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">You’ll then learn 4 questions associated with each perspective. </t>
+    <t xml:space="preserve">For example, you may be asked to read a story in a restaurant and you’ll be asked to view the story as a Restaurant Critic. </t>
+  </si>
+  <si>
+    <t>jobphotos/restaurant_critic.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ll then learn 4 questions associated with each perspective, and you’ll use these to interrogate the stories. </t>
   </si>
   <si>
     <t>instructions_photos/i2.png</t>
   </si>
   <si>
-    <t>Subsequently, you will be asked to apply those perspectives and questions to 8 stories.</t>
+    <t xml:space="preserve">For example, if you are a Restaurant Critic, you’ll learn to ask questions about the restaurant decor, menus, and the quality of the food. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After learning all the questions, you’ll read 8 stories, applying one perspective you’ve learned to each one. </t>
   </si>
   <si>
     <t>instructions_photos/i3.png</t>
   </si>
   <si>
-    <t xml:space="preserve">For each story you read, you will be asked to assume one of the perspectives. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">While reading, try to remember the perspective and the questions of that perspective. </t>
+    <t xml:space="preserve">While reading, try to keep in mind the perspective and questions. </t>
   </si>
   <si>
     <t xml:space="preserve">After you’re finished reading all the stories, you will be asked to recall the stories and answer questions about them. </t>
@@ -66,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -87,6 +96,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
   <fills count="5">
@@ -115,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -200,10 +214,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -219,6 +233,21 @@
       </left>
       <right style="thin">
         <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -316,7 +345,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -326,16 +355,19 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -344,34 +376,37 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1461,13 +1496,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1485,277 +1526,301 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="60.8" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="104.25" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="60.8" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="104.25" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="104.25" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="B4" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" ht="104.25" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="104.25" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="B5" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" ht="104.25" customHeight="1">
+      <c r="A6" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="104.25" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="B6" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" ht="104.25" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="104.25" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="A8" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="B8" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="116.05" customHeight="1">
-      <c r="A9" t="s" s="13">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" ht="104.25" customHeight="1">
+      <c r="A9" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="116.05" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B9" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" ht="104.25" customHeight="1">
+      <c r="A10" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" ht="116.05" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A11" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" ht="116.05" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" ht="155.55" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" ht="155.55" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" ht="68.05" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" ht="116.05" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" ht="116.05" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" ht="155.55" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" ht="155.55" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" ht="68.05" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>instruct_text</t>
   </si>
@@ -29,28 +29,28 @@
     <t xml:space="preserve">In this task, you'll be assuming various perspectives of jobs while reading stories. </t>
   </si>
   <si>
-    <t xml:space="preserve">First, you’ll be introduced to perspectives of 8 different jobs. </t>
+    <t xml:space="preserve">First, you’ll be introduced to the perspectives of 8 different jobs. </t>
   </si>
   <si>
     <t>instructions_photos/i1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">For example, you may be asked to read a story in a restaurant and you’ll be asked to view the story as a Restaurant Critic. </t>
+    <t xml:space="preserve">For example, you may be asked to take on the perspective of a Restaurant Critic while you read a story that takes place in a restaurant. </t>
   </si>
   <si>
     <t>jobphotos/restaurant_critic.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">You’ll then learn 4 questions associated with each perspective, and you’ll use these to interrogate the stories. </t>
+    <t xml:space="preserve">You’ll learn 4 questions associated with each perspective, and you’ll use these to interrogate the stories while assuming that perspective. </t>
   </si>
   <si>
     <t>instructions_photos/i2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">For example, if you are a Restaurant Critic, you’ll learn to ask questions about the restaurant decor, menus, and the quality of the food. </t>
+    <t xml:space="preserve">For example, if you are a Restaurant Critic, you’ll learn to ask questions about the restaurant decor, menus, and the enjoyment of the food. </t>
   </si>
   <si>
-    <t xml:space="preserve">After learning all the questions, you’ll read 8 stories, applying one perspective you’ve learned to each one. </t>
+    <t xml:space="preserve">After learning all the questions in a series of pre-task quizzes, you’ll read 8 stories, applying one perspective you’ve learned to each one. </t>
   </si>
   <si>
     <t>instructions_photos/i3.png</t>
@@ -65,6 +65,9 @@
     <t>instructions_photos/i4.png</t>
   </si>
   <si>
+    <t xml:space="preserve">Try to remember the stories and the answers to the questions as you read them for these later tasks. </t>
+  </si>
+  <si>
     <t>Let’s begin! The 8 perspectives are as follows:</t>
   </si>
 </sst>
@@ -75,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -96,11 +99,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
   <fills count="5">
@@ -355,19 +353,19 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -376,7 +374,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -388,16 +386,16 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -406,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1496,19 +1494,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1628,31 +1620,33 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" ht="104.25" customHeight="1">
-      <c r="A10" t="s" s="13">
+      <c r="A10" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" ht="116.05" customHeight="1">
-      <c r="A11" t="s" s="15">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" ht="104.25" customHeight="1">
+      <c r="A11" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" ht="116.05" customHeight="1">
-      <c r="A12" s="18"/>
+      <c r="A12" t="s" s="15">
+        <v>18</v>
+      </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1678,7 +1672,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" ht="155.55" customHeight="1">
+    <row r="15" ht="116.05" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -1696,8 +1690,8 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" ht="68.05" customHeight="1">
-      <c r="A17" s="19"/>
+    <row r="17" ht="155.55" customHeight="1">
+      <c r="A17" s="18"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1705,8 +1699,8 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="20"/>
+    <row r="18" ht="68.05" customHeight="1">
+      <c r="A18" s="19"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1822,6 +1816,15 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>instruct_text</t>
   </si>
@@ -41,7 +41,7 @@
     <t>jobphotos/restaurant_critic.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">You’ll learn 4 questions associated with each perspective, and you’ll use these to interrogate the stories while assuming that perspective. </t>
+    <t xml:space="preserve">You’ll learn 4 questions associated with each perspective, and you should keep them in mind while reading the story while assuming that perspective. </t>
   </si>
   <si>
     <t>instructions_photos/i2.png</t>
@@ -65,9 +65,6 @@
     <t>instructions_photos/i4.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Try to remember the stories and the answers to the questions as you read them for these later tasks. </t>
-  </si>
-  <si>
     <t>Let’s begin! The 8 perspectives are as follows:</t>
   </si>
 </sst>
@@ -78,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -99,6 +96,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
   <fills count="5">
@@ -353,19 +355,19 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -374,7 +376,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -386,16 +388,16 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -404,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,13 +1496,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1620,33 +1628,31 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" ht="104.25" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="A10" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" ht="104.25" customHeight="1">
-      <c r="A11" t="s" s="13">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" ht="116.05" customHeight="1">
+      <c r="A11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" ht="116.05" customHeight="1">
-      <c r="A12" t="s" s="15">
-        <v>18</v>
-      </c>
+      <c r="A12" s="18"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1672,7 +1678,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" ht="116.05" customHeight="1">
+    <row r="15" ht="155.55" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -1690,8 +1696,8 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" ht="155.55" customHeight="1">
-      <c r="A17" s="18"/>
+    <row r="17" ht="68.05" customHeight="1">
+      <c r="A17" s="19"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1699,8 +1705,8 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" ht="68.05" customHeight="1">
-      <c r="A18" s="19"/>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="20"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1816,15 +1822,6 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
